--- a/data/mags.xlsx
+++ b/data/mags.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="4120" windowWidth="19980" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="4480" yWindow="4140" windowWidth="19980" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Qty</t>
   </si>
@@ -51,25 +51,25 @@
     <t>Ammo</t>
   </si>
   <si>
-    <t>10-mm</t>
-  </si>
-  <si>
     <t>Cell</t>
   </si>
   <si>
-    <t>½</t>
-  </si>
-  <si>
     <t>V/R</t>
   </si>
   <si>
-    <t>308</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>10-mm Pistol Mag</t>
+    <t>x308</t>
+  </si>
+  <si>
+    <t>10mm Pistol Mag</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>9mm Pistol Mag</t>
+  </si>
+  <si>
+    <t>9mm</t>
   </si>
 </sst>
 </file>
@@ -126,8 +126,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -156,28 +172,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -187,6 +203,14 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -196,6 +220,14 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -228,7 +260,7 @@
             <v>Weight</v>
           </cell>
           <cell r="F1" t="str">
-            <v>Shots</v>
+            <v>Capacity</v>
           </cell>
           <cell r="G1" t="str">
             <v>Value</v>
@@ -236,48 +268,71 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>10-mm</v>
+            <v>9mm</v>
           </cell>
           <cell r="B2">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="C2">
             <v>1</v>
           </cell>
           <cell r="D2">
-            <v>30</v>
+            <v>35</v>
           </cell>
           <cell r="E2">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="F2">
-            <v>60</v>
+            <v>35</v>
           </cell>
           <cell r="G2">
-            <v>60</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>308</v>
+            <v>10mm</v>
           </cell>
           <cell r="B3">
             <v>1</v>
           </cell>
           <cell r="C3">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="D3">
-            <v>20</v>
+            <v>25</v>
           </cell>
           <cell r="E3">
             <v>2</v>
           </cell>
           <cell r="F3">
-            <v>40</v>
+            <v>50</v>
           </cell>
           <cell r="G3">
-            <v>160</v>
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>x308</v>
+          </cell>
+          <cell r="B4">
+            <v>1</v>
+          </cell>
+          <cell r="C4">
+            <v>4</v>
+          </cell>
+          <cell r="D4">
+            <v>15</v>
+          </cell>
+          <cell r="E4">
+            <v>2</v>
+          </cell>
+          <cell r="F4">
+            <v>30</v>
+          </cell>
+          <cell r="G4">
+            <v>120</v>
           </cell>
         </row>
       </sheetData>
@@ -608,21 +663,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="9" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="3"/>
     <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="5"/>
+    <col min="7" max="7" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -632,11 +686,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -644,214 +698,231 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3">
+      <c r="D2" s="9">
+        <f>VLOOKUP(C2,[1]Sheet1!$A:$G,3)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9">
-        <f>VLOOKUP(C2,[1]Sheet1!$A$1:$G$3,3)</f>
+      <c r="E2" s="6">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7">
+        <f>ROUND(1.2*D2*E2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="G2" s="9">
         <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11">
-        <f>ROUND(1.2*D2*E2,0)</f>
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="9">
-        <f>VLOOKUP(C3,[1]Sheet1!$A$1:$G$3,3)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3" si="0">ROUND(1.2*D3*E3,0)</f>
+        <v>29</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9">
+        <f>VLOOKUP(C4,[1]Sheet1!$A:$G,3)</f>
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F3" s="11">
-        <f>ROUND(1.2*D3*E3,0)</f>
+      <c r="F4" s="7">
+        <f>ROUND(1.2*D4*E4,0)</f>
         <v>24</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
         <v>30</v>
       </c>
-      <c r="F8" s="11">
-        <f>ROUND(1.2*D8*E8,0)</f>
+      <c r="F12" s="4">
+        <f>ROUND(1.2*D12*E12,0)</f>
         <v>72</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G12" s="10">
         <v>1</v>
       </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="F20"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="F21"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="F22"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="F23"/>
-      <c r="G23"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="F24"/>
-      <c r="G24"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="F25"/>
-      <c r="G25"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="F26"/>
-      <c r="G26"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
       <c r="F27"/>
-      <c r="G27"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="F28"/>
-      <c r="G28"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="F29"/>
-      <c r="G29"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="F30"/>
-      <c r="G30"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="F31"/>
-      <c r="G31"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="F32"/>
-      <c r="G32"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="F33"/>
-      <c r="G33"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="F34"/>
-      <c r="G34"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="10"/>
+      <c r="D35" s="11"/>
       <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="10"/>
-      <c r="F36"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="10"/>
-      <c r="F37"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="10"/>
-      <c r="F38"/>
-      <c r="G38"/>
+      <c r="G35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="D2 D4" emptyCellReference="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
